--- a/BackTest/2019-10-25 BackTest PST.xlsx
+++ b/BackTest/2019-10-25 BackTest PST.xlsx
@@ -935,7 +935,9 @@
       <c r="J12" t="n">
         <v>13.59999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-5.769230769230727</v>
+      </c>
       <c r="L12" t="n">
         <v>70.11000000000001</v>
       </c>
